--- a/mosip_master/xlsx/biometric_type.xlsx
+++ b/mosip_master/xlsx/biometric_type.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="21">
   <si>
     <t xml:space="preserve">lang_code</t>
   </si>
@@ -68,6 +68,21 @@
   </si>
   <si>
     <t xml:space="preserve">Photo of the face of the applicant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Empreintes digitales</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Empreintes digitales du demandeur</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iris du demandeur</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Photo du visage du demandeur</t>
   </si>
 </sst>
 </file>
@@ -196,13 +211,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E1048576"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
+      <selection pane="topLeft" activeCell="G6" activeCellId="0" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.4453125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.4296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="8.43"/>
   </cols>
@@ -275,14 +290,61 @@
         <v>9</v>
       </c>
     </row>
-    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
